--- a/pre/fater/ro/slimatika/_Преленд 7 Slimatika пот на карантине RO.xlsx
+++ b/pre/fater/ro/slimatika/_Преленд 7 Slimatika пот на карантине RO.xlsx
@@ -277,7 +277,7 @@
     <t>nevoie să dau jos alte 20 de kilograme.</t>
   </si>
   <si>
-    <t>16 și jumătate deja au disparut.</t>
+    <t>și jumătate deja au disparut.</t>
   </si>
   <si>
     <t>Da, și aici este cel mai interesant lucru - grăsimea nu dispare uniform, dar pleacă la început din zonele cele mai problematice.  Adică, medicamentul începe să acționeze asupra acelor straturi de grăsime care, s-ar părea că nu mai era șansă să scapi de ele.  Dar trebuie să recunosc că - picăturile Slimatika le-au dizolvat ușor fără urmă!</t>
@@ -858,12 +858,18 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FFFF0000"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -872,7 +878,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -883,6 +889,9 @@
       <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
@@ -1572,7 +1581,7 @@
       </c>
     </row>
     <row r="94" ht="15.75" customHeight="1">
-      <c r="A94" s="1" t="s">
+      <c r="A94" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -2767,47 +2776,47 @@
   <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="5" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="5" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="5" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="5" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="5" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="5" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="5" t="s">
         <v>148</v>
       </c>
     </row>
